--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\杰\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="マスタ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>＜経営データ統計表＞</t>
     <rPh sb="1" eb="3">
@@ -319,6 +314,14 @@
     <t>顧客</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員
+ID</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -326,8 +329,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -433,13 +436,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,6 +499,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,9 +520,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,7 +586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -600,7 +638,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -794,7 +832,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -802,180 +840,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.4140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="8.6640625" style="2"/>
-    <col min="6" max="6" width="11.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.6640625" style="2"/>
-    <col min="14" max="14" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="2"/>
-    <col min="16" max="16" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.58203125" style="2" customWidth="1"/>
-    <col min="18" max="20" width="8.6640625" style="2"/>
-    <col min="21" max="21" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="2"/>
-    <col min="23" max="24" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.58203125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="8.625" style="2"/>
+    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.625" style="2"/>
+    <col min="15" max="15" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="2"/>
+    <col min="17" max="17" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
+    <col min="19" max="21" width="8.625" style="2"/>
+    <col min="22" max="22" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="2"/>
+    <col min="24" max="25" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.625" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:27" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:27">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="10" t="s">
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="11"/>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:27" s="3" customFormat="1">
+      <c r="B4" s="12"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="U4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="Y4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Z4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="10"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -983,41 +1026,42 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4">
-        <f>IF(G5="正社員",R5/6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4">
+        <f>IF(H5="正社員",S5/6,0)</f>
+        <v>0</v>
+      </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="4">
-        <f>SUM(R5:V5)*0.02</f>
-        <v>0</v>
-      </c>
+      <c r="W5" s="4"/>
       <c r="X5" s="4">
-        <f>SUM(R5:V5)*0.14</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4">
-        <f>Q5-SUM(R5:Y5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <f>SUM(S5:W5)*0.02</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUM(S5:W5)*0.14</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4">
+        <f>R5-SUM(S5:Z5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="B6" s="4">
         <f t="shared" ref="B6:B21" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1025,41 +1069,42 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4">
-        <f t="shared" ref="S6:S22" si="1">IF(G6="正社員",R6/6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4">
+        <f t="shared" ref="T6:T22" si="1">IF(H6="正社員",S6/6,0)</f>
+        <v>0</v>
+      </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="4">
-        <f t="shared" ref="W6:W22" si="2">SUM(R6:V6)*0.02</f>
-        <v>0</v>
-      </c>
+      <c r="W6" s="4"/>
       <c r="X6" s="4">
-        <f t="shared" ref="X6:X22" si="3">SUM(R6:V6)*0.14</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4">
-        <f t="shared" ref="Z6:Z22" si="4">Q6-SUM(R6:Y6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="X6:X22" si="2">SUM(S6:W6)*0.02</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <f t="shared" ref="Y6:Y22" si="3">SUM(S6:W6)*0.14</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4">
+        <f t="shared" ref="AA6:AA22" si="4">R6-SUM(S6:Z6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1067,41 +1112,42 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="4">
+      <c r="W7" s="4"/>
+      <c r="X7" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Y7" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4">
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1109,41 +1155,42 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="4">
+      <c r="W8" s="4"/>
+      <c r="X8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Y8" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4">
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1151,41 +1198,42 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="4">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="4">
+      <c r="W9" s="4"/>
+      <c r="X9" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4">
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:27">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1193,41 +1241,42 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="4">
+      <c r="W10" s="4"/>
+      <c r="X10" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Y10" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4">
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1235,41 +1284,42 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="4">
+      <c r="W11" s="4"/>
+      <c r="X11" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Y11" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4">
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:27">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1277,41 +1327,42 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="4">
+      <c r="W12" s="4"/>
+      <c r="X12" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Y12" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4">
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:27">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1319,41 +1370,42 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="4">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="4">
+      <c r="W13" s="4"/>
+      <c r="X13" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Y13" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4">
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:27">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1361,41 +1413,42 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="4">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="4">
+      <c r="W14" s="4"/>
+      <c r="X14" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Y14" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4">
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:27">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1403,41 +1456,42 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="4">
+      <c r="W15" s="4"/>
+      <c r="X15" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Y15" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4">
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:27">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1445,41 +1499,42 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="4">
+      <c r="W16" s="4"/>
+      <c r="X16" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Y16" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4">
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:27">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1487,41 +1542,42 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="4">
+      <c r="W17" s="4"/>
+      <c r="X17" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4">
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:27">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1529,41 +1585,42 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="4">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="4">
+      <c r="W18" s="4"/>
+      <c r="X18" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Y18" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4">
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:27">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -1571,41 +1628,42 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="4">
+      <c r="W19" s="4"/>
+      <c r="X19" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Y19" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4">
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:27">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -1613,41 +1671,42 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="4">
+      <c r="S20" s="4"/>
+      <c r="T20" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="4">
+      <c r="W20" s="4"/>
+      <c r="X20" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Y20" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4">
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:27">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -1655,41 +1714,42 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="4">
+      <c r="S21" s="4"/>
+      <c r="T21" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="4">
+      <c r="W21" s="4"/>
+      <c r="X21" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X21" s="4">
+      <c r="Y21" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4">
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:27">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -1697,36 +1757,38 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="4">
+      <c r="S22" s="4"/>
+      <c r="T22" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="4">
+      <c r="W22" s="4"/>
+      <c r="X22" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X22" s="4">
+      <c r="Y22" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4">
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="Z3:Z4"/>
+  <mergeCells count="8">
+    <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:Z3"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1742,12 +1804,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" style="9"/>
+    <col min="3" max="3" width="8.625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1755,7 +1817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:3">
       <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
@@ -1763,5 +1825,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YangWanjun/Documents/workspace/ebusiness/media/attachment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="マスタ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -330,7 +338,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <numFmts count="2">
+    <numFmt numFmtId="179" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,42 +435,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,45 +502,60 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -832,7 +859,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -842,60 +869,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.75" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="8.625" style="2"/>
-    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="8.6640625" style="2"/>
+    <col min="7" max="7" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.625" style="2"/>
-    <col min="15" max="15" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="2"/>
-    <col min="17" max="17" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
-    <col min="19" max="21" width="8.625" style="2"/>
-    <col min="22" max="22" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.625" style="2"/>
-    <col min="24" max="25" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.625" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="8.625" style="2"/>
+    <col min="10" max="10" width="10.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" style="13"/>
+    <col min="15" max="15" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="13"/>
+    <col min="17" max="17" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="13" customWidth="1"/>
+    <col min="19" max="21" width="8.6640625" style="13"/>
+    <col min="22" max="22" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" style="13"/>
+    <col min="24" max="25" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" style="13" customWidth="1"/>
+    <col min="28" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.75">
+    <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="14" t="s">
         <v>11</v>
       </c>
@@ -917,13 +942,13 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="11" t="s">
+      <c r="AA3" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="3" customFormat="1">
-      <c r="B4" s="12"/>
-      <c r="C4" s="18"/>
+    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -948,833 +973,833 @@
       <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="R4" s="15"/>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="11"/>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4" s="17"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4">
+      <c r="L5" s="23"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20">
         <f>IF(H5="正社員",S5/6,0)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4">
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20">
         <f>SUM(S5:W5)*0.02</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="20">
         <f>SUM(S5:W5)*0.14</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4">
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20">
         <f>R5-SUM(S5:Z5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <f t="shared" ref="B6:B21" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20">
         <f t="shared" ref="T6:T22" si="1">IF(H6="正社員",S6/6,0)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4">
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20">
         <f t="shared" ref="X6:X22" si="2">SUM(S6:W6)*0.02</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="20">
         <f t="shared" ref="Y6:Y22" si="3">SUM(S6:W6)*0.14</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4">
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20">
         <f t="shared" ref="AA6:AA22" si="4">R6-SUM(S6:Z6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4">
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4">
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4">
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4">
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4">
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4">
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4">
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4">
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4">
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4">
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4">
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4">
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4">
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4">
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4">
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4">
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4">
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4">
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4">
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4">
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4">
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4">
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4">
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4">
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:27">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4">
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4">
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:27">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4">
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Y20" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4">
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:27">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4">
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y21" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4">
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4">
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Y22" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4">
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1804,21 +1829,21 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.625" style="9"/>
+    <col min="3" max="3" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
     </row>

--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YangWanjun/Documents/workspace/ebusiness/media/attachment/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="マスタ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -338,9 +333,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -480,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,49 +504,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,7 +858,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -871,84 +870,84 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="8.6640625" style="2"/>
-    <col min="7" max="7" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="8.625" style="2"/>
+    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.6640625" style="13"/>
-    <col min="15" max="15" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" style="13"/>
-    <col min="17" max="17" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="13" customWidth="1"/>
-    <col min="19" max="21" width="8.6640625" style="13"/>
-    <col min="22" max="22" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="13"/>
-    <col min="24" max="25" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" style="13" customWidth="1"/>
-    <col min="28" max="16384" width="8.6640625" style="2"/>
+    <col min="10" max="10" width="10.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.625" style="9"/>
+    <col min="15" max="15" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="9"/>
+    <col min="17" max="17" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="9" customWidth="1"/>
+    <col min="19" max="21" width="8.625" style="9"/>
+    <col min="22" max="22" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="9"/>
+    <col min="24" max="25" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.625" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="14" t="s">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="15" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="17" t="s">
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
+    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="17"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -973,52 +972,52 @@
       <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="19" t="s">
+      <c r="R4" s="20"/>
+      <c r="S4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="19" t="s">
+      <c r="W4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="X4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="19" t="s">
+      <c r="Y4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="Z4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="17"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA4" s="16"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1044,36 +1043,36 @@
       <c r="K5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20">
+      <c r="L5" s="15"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="12">
         <f>IF(H5="正社員",S5/6,0)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20">
+      <c r="U5" s="24"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="12">
         <f>SUM(S5:W5)*0.02</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="Y5" s="12">
         <f>SUM(S5:W5)*0.14</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20">
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12">
         <f>R5-SUM(S5:Z5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <f t="shared" ref="B6:B21" si="0">ROW()-4</f>
         <v>2</v>
@@ -1087,36 +1086,36 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20">
+      <c r="L6" s="15"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12">
         <f t="shared" ref="T6:T22" si="1">IF(H6="正社員",S6/6,0)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20">
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12">
         <f t="shared" ref="X6:X22" si="2">SUM(S6:W6)*0.02</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="Y6" s="12">
         <f t="shared" ref="Y6:Y22" si="3">SUM(S6:W6)*0.14</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20">
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12">
         <f t="shared" ref="AA6:AA22" si="4">R6-SUM(S6:Z6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1130,36 +1129,36 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20">
+      <c r="L7" s="15"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20">
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="20">
+      <c r="Y7" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20">
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1173,36 +1172,36 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20">
+      <c r="L8" s="15"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20">
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="20">
+      <c r="Y8" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20">
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1216,36 +1215,36 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20">
+      <c r="L9" s="15"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20">
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="20">
+      <c r="Y9" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20">
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1259,36 +1258,36 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20">
+      <c r="L10" s="15"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20">
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="20">
+      <c r="Y10" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20">
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1302,36 +1301,36 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20">
+      <c r="L11" s="15"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20">
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="Y11" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20">
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1345,36 +1344,36 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20">
+      <c r="L12" s="15"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20">
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="20">
+      <c r="Y12" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20">
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1388,36 +1387,36 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20">
+      <c r="L13" s="15"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20">
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="20">
+      <c r="Y13" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20">
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1431,36 +1430,36 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20">
+      <c r="L14" s="15"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20">
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="20">
+      <c r="Y14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20">
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1474,36 +1473,36 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20">
+      <c r="L15" s="15"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20">
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="20">
+      <c r="Y15" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20">
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1517,36 +1516,36 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20">
+      <c r="L16" s="15"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20">
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="20">
+      <c r="Y16" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20">
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1560,36 +1559,36 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20">
+      <c r="L17" s="15"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20">
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="20">
+      <c r="Y17" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20">
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1603,36 +1602,36 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20">
+      <c r="L18" s="15"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20">
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="20">
+      <c r="Y18" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20">
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1646,36 +1645,36 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20">
+      <c r="L19" s="15"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20">
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="20">
+      <c r="Y19" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20">
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1689,36 +1688,36 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20">
+      <c r="L20" s="15"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20">
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="20">
+      <c r="Y20" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20">
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1732,36 +1731,36 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20">
+      <c r="L21" s="15"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20">
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="20">
+      <c r="Y21" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20">
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
@@ -1775,31 +1774,31 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20">
+      <c r="L22" s="15"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20">
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="20">
+      <c r="Y22" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20">
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1829,12 +1828,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" style="7"/>
+    <col min="3" max="3" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1842,7 +1841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C3" s="7" t="s">
         <v>33</v>
       </c>

--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="マスタ" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AD$4</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>＜経営データ統計表＞</t>
     <rPh sb="1" eb="3">
@@ -190,13 +193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>売上</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>原価</t>
     <rPh sb="0" eb="2">
       <t>ゲンカ</t>
@@ -325,6 +321,35 @@
 ID</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社会保険
+加入有無</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上</t>
+  </si>
+  <si>
+    <t>税込</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>税別</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経費</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -338,7 +363,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +397,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -421,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -470,13 +502,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,6 +594,15 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,9 +615,6 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,8 +624,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,7 +939,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -866,88 +947,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="5.625" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="6" width="8.625" style="2"/>
     <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.625" style="9"/>
-    <col min="15" max="15" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="9"/>
-    <col min="17" max="17" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="9" customWidth="1"/>
-    <col min="19" max="21" width="8.625" style="9"/>
-    <col min="22" max="22" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.625" style="9"/>
-    <col min="24" max="25" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.625" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="8.625" style="2"/>
+    <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.625" style="9"/>
+    <col min="16" max="16" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="9"/>
+    <col min="18" max="18" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.375" style="9" customWidth="1"/>
+    <col min="21" max="21" width="9.625" style="9" customWidth="1"/>
+    <col min="22" max="24" width="8.625" style="9"/>
+    <col min="25" max="25" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.625" style="9"/>
+    <col min="27" max="28" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:30">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="27"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="17"/>
-      <c r="C4" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="3" customFormat="1" ht="27">
+      <c r="B4" s="20"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -960,64 +1046,75 @@
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="K4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="AA4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="AC4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA4" s="16"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AD4" s="19"/>
+    </row>
+    <row r="5" spans="1:30">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1025,56 +1122,59 @@
       <c r="C5" s="4"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="12">
-        <f>IF(H5="正社員",S5/6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="24"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="12">
-        <f>SUM(S5:W5)*0.02</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="12">
-        <f>SUM(S5:W5)*0.14</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="12"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="12">
+        <f t="shared" ref="W5:W22" si="0">IF(I5="正社員",V5/6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="16"/>
       <c r="AA5" s="12">
-        <f>R5-SUM(S5:Z5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
+        <f>IF(OR(I5="正社員",I5="契約社員"),SUM(V5:Z5)*0.02,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="12">
+        <f>IF(H5="○",SUM(V5:Z5)*0.14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12">
+        <f>S5-SUM(V5:AC5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="B6" s="4">
-        <f t="shared" ref="B6:B21" si="0">ROW()-4</f>
+        <f t="shared" ref="B6:B21" si="1">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
@@ -1082,42 +1182,45 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="12"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="12">
-        <f t="shared" ref="T6:T22" si="1">IF(H6="正社員",S6/6,0)</f>
-        <v>0</v>
-      </c>
+      <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12">
-        <f t="shared" ref="X6:X22" si="2">SUM(S6:W6)*0.02</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="12">
-        <f t="shared" ref="Y6:Y22" si="3">SUM(S6:W6)*0.14</f>
-        <v>0</v>
-      </c>
+      <c r="W6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12">
-        <f t="shared" ref="AA6:AA22" si="4">R6-SUM(S6:Z6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AA6:AA22" si="2">IF(OR(I6="正社員",I6="契約社員"),SUM(V6:Z6)*0.02,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="12">
+        <f t="shared" ref="AB6:AB22" si="3">IF(H6="○",SUM(V6:Z6)*0.14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12">
+        <f t="shared" ref="AD6:AD22" si="4">S6-SUM(V6:AC6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="B7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
@@ -1125,42 +1228,45 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="12"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="B8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
@@ -1168,42 +1274,45 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="B9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
@@ -1211,42 +1320,45 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="12"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="B10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
@@ -1254,42 +1366,45 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="12"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="B11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C11" s="4"/>
@@ -1297,42 +1412,45 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="12"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="15"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="B12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C12" s="4"/>
@@ -1340,42 +1458,45 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="12"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
-      <c r="T12" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="B13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C13" s="4"/>
@@ -1383,42 +1504,45 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
-      <c r="T13" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="B14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C14" s="4"/>
@@ -1426,42 +1550,45 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="12"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="B15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C15" s="4"/>
@@ -1469,42 +1596,45 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
-      <c r="T15" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="B16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C16" s="4"/>
@@ -1512,42 +1642,45 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-      <c r="T16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30">
       <c r="B17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
@@ -1555,42 +1688,45 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30">
       <c r="B18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C18" s="4"/>
@@ -1598,42 +1734,45 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="12"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30">
       <c r="B19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C19" s="4"/>
@@ -1641,42 +1780,45 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="12"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30">
       <c r="B20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C20" s="4"/>
@@ -1684,42 +1826,45 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="12"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30">
       <c r="B21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C21" s="4"/>
@@ -1727,40 +1872,43 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="12"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
@@ -1770,53 +1918,57 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="12"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="W22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:AD4"/>
   <mergeCells count="8">
-    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:Z3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="V3:AC3"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="S3:U3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1828,22 +1980,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -545,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,35 +603,68 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,7 +972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,55 +1018,55 @@
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="26" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="23" t="s">
+      <c r="T3" s="35"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="19" t="s">
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="3" customFormat="1" ht="27">
-      <c r="B4" s="20"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1112,7 +1145,7 @@
       <c r="AC4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AD4" s="19"/>
+      <c r="AD4" s="22"/>
     </row>
     <row r="5" spans="1:30">
       <c r="B5" s="4">
@@ -1956,15 +1989,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:AD4"/>
-  <mergeCells count="8">
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="V3:AC3"/>
+  <mergeCells count="1">
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="S3:U3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -11,7 +11,7 @@
     <sheet name="マスタ" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AD$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AB$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>＜経営データ統計表＞</t>
     <rPh sb="1" eb="3">
@@ -207,10 +207,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボーナス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>手当</t>
     <rPh sb="0" eb="2">
       <t>テアテ</t>
@@ -251,13 +247,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>業績ボーナス</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -545,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,68 +592,65 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
@@ -1003,70 +991,67 @@
     <col min="18" max="18" width="10.375" style="9" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="10.375" style="9" customWidth="1"/>
     <col min="21" max="21" width="9.625" style="9" customWidth="1"/>
-    <col min="22" max="24" width="8.625" style="9"/>
-    <col min="25" max="25" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.625" style="9"/>
-    <col min="27" max="28" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.625" style="9" customWidth="1"/>
-    <col min="31" max="16384" width="8.625" style="2"/>
+    <col min="22" max="23" width="8.625" style="9"/>
+    <col min="24" max="24" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.625" style="9"/>
+    <col min="26" max="27" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" style="9" customWidth="1"/>
+    <col min="29" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75">
+    <row r="1" spans="1:28" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="1:28">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="37" t="s">
+      <c r="T3" s="33"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="3" customFormat="1" ht="27">
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="3" customFormat="1" ht="27">
+      <c r="B4" s="19"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>6</v>
@@ -1089,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
@@ -1113,13 +1098,13 @@
         <v>17</v>
       </c>
       <c r="S4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="V4" s="11" t="s">
         <v>19</v>
@@ -1139,15 +1124,9 @@
       <c r="AA4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD4" s="22"/>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AB4" s="20"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1155,24 +1134,24 @@
       <c r="C5" s="4"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="16"/>
@@ -1182,30 +1161,25 @@
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="12"/>
+      <c r="U5" s="16"/>
       <c r="V5" s="16"/>
-      <c r="W5" s="12">
-        <f t="shared" ref="W5:W22" si="0">IF(I5="正社員",V5/6,0)</f>
-        <v>0</v>
-      </c>
+      <c r="W5" s="16"/>
       <c r="X5" s="16"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="12">
-        <f>IF(OR(I5="正社員",I5="契約社員"),SUM(V5:Z5)*0.02,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="12">
-        <f>IF(H5="○",SUM(V5:Z5)*0.14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12">
-        <f>S5-SUM(V5:AC5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16">
+        <f>IF(OR(I5="正社員",I5="契約社員"),SUM(V5:Y5)*0.02,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="16">
+        <f t="shared" ref="AA5:AA22" si="0">IF(H5="○",SUM(V5:Y5)*0.14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16">
+        <f>T5-SUM(V5:AA5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="B6" s="4">
         <f t="shared" ref="B6:B21" si="1">ROW()-4</f>
         <v>2</v>
@@ -1230,28 +1204,23 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12">
-        <f t="shared" ref="AA6:AA22" si="2">IF(OR(I6="正社員",I6="契約社員"),SUM(V6:Z6)*0.02,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="12">
-        <f t="shared" ref="AB6:AB22" si="3">IF(H6="○",SUM(V6:Z6)*0.14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12">
-        <f t="shared" ref="AD6:AD22" si="4">S6-SUM(V6:AC6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="Z6" s="16">
+        <f t="shared" ref="Z6:Z22" si="2">IF(OR(I6="正社員",I6="契約社員"),SUM(V6:Y6)*0.02,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="16">
+        <f t="shared" ref="AB6:AB22" si="3">T6-SUM(V6:AA6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="B7" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1276,28 +1245,23 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12">
+      <c r="Z7" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AA7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+    </row>
+    <row r="8" spans="1:28">
       <c r="B8" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1322,28 +1286,23 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12">
+      <c r="Z8" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AA8" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+    </row>
+    <row r="9" spans="1:28">
       <c r="B9" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1368,28 +1327,23 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12">
+      <c r="Z9" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AA9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+    </row>
+    <row r="10" spans="1:28">
       <c r="B10" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1414,28 +1368,23 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12">
+      <c r="Z10" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="AA10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+    </row>
+    <row r="11" spans="1:28">
       <c r="B11" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1460,28 +1409,23 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12">
+      <c r="Z11" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AA11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+    </row>
+    <row r="12" spans="1:28">
       <c r="B12" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1506,28 +1450,23 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12">
+      <c r="Z12" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AA12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+    </row>
+    <row r="13" spans="1:28">
       <c r="B13" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1552,28 +1491,23 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12">
+      <c r="Z13" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AA13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+    </row>
+    <row r="14" spans="1:28">
       <c r="B14" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1598,28 +1532,23 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12">
+      <c r="Z14" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="12">
+      <c r="AA14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+    </row>
+    <row r="15" spans="1:28">
       <c r="B15" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1644,28 +1573,23 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12">
+      <c r="Z15" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="12">
+      <c r="AA15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+    </row>
+    <row r="16" spans="1:28">
       <c r="B16" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1690,28 +1614,23 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12">
+      <c r="Z16" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="12">
+      <c r="AA16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:30">
+    </row>
+    <row r="17" spans="2:28">
       <c r="B17" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1736,28 +1655,23 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12">
+      <c r="Z17" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="12">
+      <c r="AA17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:30">
+    </row>
+    <row r="18" spans="2:28">
       <c r="B18" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1782,28 +1696,23 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
-      <c r="W18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12">
+      <c r="Z18" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="12">
+      <c r="AA18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:30">
+    </row>
+    <row r="19" spans="2:28">
       <c r="B19" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1828,28 +1737,23 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
-      <c r="W19" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12">
+      <c r="Z19" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="12">
+      <c r="AA19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:30">
+    </row>
+    <row r="20" spans="2:28">
       <c r="B20" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1874,28 +1778,23 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12">
+      <c r="Z20" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="12">
+      <c r="AA20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:30">
+    </row>
+    <row r="21" spans="2:28">
       <c r="B21" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1920,28 +1819,23 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
-      <c r="W21" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12">
+      <c r="Z21" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AA21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:30">
+    </row>
+    <row r="22" spans="2:28">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
@@ -1966,29 +1860,24 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
-      <c r="W22" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12">
+      <c r="Z22" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="12">
+      <c r="AA22" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AD4"/>
+  <autoFilter ref="A4:AB4"/>
   <mergeCells count="1">
     <mergeCell ref="C3:C4"/>
   </mergeCells>
@@ -2016,12 +1905,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -11,7 +11,7 @@
     <sheet name="マスタ" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AE$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>＜経営データ統計表＞</t>
     <rPh sb="1" eb="3">
@@ -241,16 +241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>健康／厚生</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>利益</t>
     <rPh sb="0" eb="2">
       <t>リエキ</t>
@@ -339,6 +329,34 @@
     <t>経費</t>
     <rPh sb="0" eb="2">
       <t>ケイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深夜手当</t>
+    <rPh sb="0" eb="4">
+      <t>シンヤテアテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経費</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康／厚生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原価合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -352,7 +370,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +411,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -534,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -565,9 +591,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,9 +600,6 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -650,6 +670,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,11 +995,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
@@ -984,74 +1011,79 @@
     <col min="10" max="10" width="19" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="12" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="8.625" style="9"/>
     <col min="16" max="16" width="10.375" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.625" style="9"/>
     <col min="18" max="18" width="10.375" style="9" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="10.375" style="9" customWidth="1"/>
     <col min="21" max="21" width="9.625" style="9" customWidth="1"/>
-    <col min="22" max="23" width="8.625" style="9"/>
-    <col min="24" max="24" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.625" style="9"/>
-    <col min="26" max="27" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" style="9" customWidth="1"/>
-    <col min="29" max="16384" width="8.625" style="2"/>
+    <col min="22" max="24" width="8.625" style="9"/>
+    <col min="25" max="25" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.625" style="9"/>
+    <col min="28" max="28" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.375" style="9" customWidth="1"/>
+    <col min="30" max="30" width="10.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.625" style="9" customWidth="1"/>
+    <col min="32" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.75">
+    <row r="1" spans="1:31" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="1:31">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="33"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="35" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="31"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" ht="27">
-      <c r="B4" s="19"/>
-      <c r="C4" s="38"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="3" customFormat="1" ht="27">
+      <c r="B4" s="17"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1064,8 +1096,8 @@
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>36</v>
+      <c r="H4" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>6</v>
@@ -1074,59 +1106,68 @@
         <v>7</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="U4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="V4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="X4" s="11" t="s">
+      <c r="Y4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Z4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AA4" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB4" s="20"/>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="18"/>
+    </row>
+    <row r="5" spans="1:31">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1134,54 +1175,60 @@
       <c r="C5" s="4"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16">
-        <f>IF(OR(I5="正社員",I5="契約社員"),SUM(V5:Y5)*0.02,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16">
-        <f t="shared" ref="AA5:AA22" si="0">IF(H5="○",SUM(V5:Y5)*0.14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="16">
-        <f>T5-SUM(V5:AA5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>31</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14">
+        <f>IF(OR(I5="正社員",I5="契約社員"),SUM(V5:Z5)*0.02,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="14">
+        <f>IF(H5="○",SUM(V5:Z5)*0.14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="14">
+        <f>SUM(V5:AC5)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="14">
+        <f>T5-SUM(V5:AC5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="B6" s="4">
-        <f t="shared" ref="B6:B21" si="1">ROW()-4</f>
+        <f t="shared" ref="B6:B21" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
@@ -1194,35 +1241,41 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="16">
-        <f t="shared" ref="Z6:Z22" si="2">IF(OR(I6="正社員",I6="契約社員"),SUM(V6:Y6)*0.02,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="16">
+      <c r="M6" s="13"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="14">
+        <f t="shared" ref="AB6:AB22" si="1">IF(OR(I6="正社員",I6="契約社員"),SUM(V6:Z6)*0.02,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="14">
+        <f t="shared" ref="AC6:AC22" si="2">IF(H6="○",SUM(V6:Z6)*0.14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="14">
+        <f t="shared" ref="AD6:AD22" si="3">SUM(V6:AC6)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="14">
+        <f t="shared" ref="AE6:AE22" si="4">T6-SUM(V6:AC6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="16">
-        <f t="shared" ref="AB6:AB22" si="3">T6-SUM(V6:AA6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="B7" s="4">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
@@ -1235,35 +1288,41 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="16">
+      <c r="M7" s="13"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AD7" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="B8" s="4">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
@@ -1276,35 +1335,41 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="16">
+      <c r="M8" s="13"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="16">
+      <c r="AD8" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="B9" s="4">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
@@ -1317,35 +1382,41 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="16">
+      <c r="M9" s="13"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="16">
+      <c r="AD9" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="B10" s="4">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
@@ -1358,35 +1429,41 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="16">
+      <c r="M10" s="13"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="16">
+      <c r="AD10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="B11" s="4">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C11" s="4"/>
@@ -1399,35 +1476,41 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="16">
+      <c r="M11" s="13"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="16">
+      <c r="AD11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="B12" s="4">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C12" s="4"/>
@@ -1440,35 +1523,41 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="16">
+      <c r="M12" s="13"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AD12" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="B13" s="4">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C13" s="4"/>
@@ -1481,35 +1570,41 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="16">
+      <c r="M13" s="13"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AD13" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="B14" s="4">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C14" s="4"/>
@@ -1522,35 +1617,41 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="16">
+      <c r="M14" s="13"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="AD14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="B15" s="4">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C15" s="4"/>
@@ -1563,35 +1664,41 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="16">
+      <c r="M15" s="13"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="16">
+      <c r="AD15" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="B16" s="4">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C16" s="4"/>
@@ -1604,35 +1711,41 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="16">
+      <c r="M16" s="13"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="16">
+      <c r="AD16" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28">
-      <c r="B17" s="4">
-        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
@@ -1645,35 +1758,41 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="16">
+      <c r="M17" s="13"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="16">
+      <c r="AD17" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28">
-      <c r="B18" s="4">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C18" s="4"/>
@@ -1686,35 +1805,41 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="16">
+      <c r="M18" s="13"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="16">
+      <c r="AD18" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28">
-      <c r="B19" s="4">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C19" s="4"/>
@@ -1727,35 +1852,41 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="16">
+      <c r="M19" s="13"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="16">
+      <c r="AD19" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28">
-      <c r="B20" s="4">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C20" s="4"/>
@@ -1768,35 +1899,41 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="16">
+      <c r="M20" s="13"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="16">
+      <c r="AD20" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28">
-      <c r="B21" s="4">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C21" s="4"/>
@@ -1809,33 +1946,39 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="16">
+      <c r="M21" s="13"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="16">
+      <c r="AD21" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:28">
+      <c r="AE21" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
@@ -1850,34 +1993,40 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="16">
+      <c r="M22" s="13"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="16">
+      <c r="AD22" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AE22" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AB4"/>
+  <autoFilter ref="A4:AE4"/>
   <mergeCells count="1">
     <mergeCell ref="C3:C4"/>
   </mergeCells>
@@ -1905,12 +2054,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -666,19 +666,19 @@
     <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,7 +987,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,7 +1037,7 @@
       <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -1083,7 +1083,7 @@
     </row>
     <row r="4" spans="1:31" s="3" customFormat="1" ht="27">
       <c r="B4" s="17"/>
-      <c r="C4" s="36"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1111,22 +1111,22 @@
       <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="37" t="s">
         <v>17</v>
       </c>
       <c r="S4" s="16" t="s">
@@ -1141,7 +1141,7 @@
       <c r="V4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="37" t="s">
+      <c r="W4" s="35" t="s">
         <v>20</v>
       </c>
       <c r="X4" s="10" t="s">
@@ -1153,7 +1153,7 @@
       <c r="Z4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AA4" s="37" t="s">
+      <c r="AA4" s="35" t="s">
         <v>41</v>
       </c>
       <c r="AB4" s="10" t="s">
@@ -1210,7 +1210,7 @@
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14">
-        <f>IF(OR(I5="正社員",I5="契約社員"),SUM(V5:Z5)*0.02,0)</f>
+        <f>IF(OR(I5="正社員",I5="契約社員"),SUM(V5:Z5)*0.01,0)</f>
         <v>0</v>
       </c>
       <c r="AC5" s="14">
@@ -1257,7 +1257,7 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="14">
-        <f t="shared" ref="AB6:AB22" si="1">IF(OR(I6="正社員",I6="契約社員"),SUM(V6:Z6)*0.02,0)</f>
+        <f t="shared" ref="AB6:AB22" si="1">IF(OR(I6="正社員",I6="契約社員"),SUM(V6:Z6)*0.01,0)</f>
         <v>0</v>
       </c>
       <c r="AC6" s="14">

--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -296,14 +296,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員
-ID</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社会保険
 加入有無</t>
     <phoneticPr fontId="1"/>
@@ -358,6 +350,10 @@
     <rPh sb="2" eb="4">
       <t>ゴウケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -560,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,10 +672,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,7 +980,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1033,12 +1026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>9</v>
@@ -1062,7 +1055,7 @@
       <c r="Q3" s="28"/>
       <c r="R3" s="29"/>
       <c r="S3" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T3" s="31"/>
       <c r="U3" s="32"/>
@@ -1083,7 +1076,7 @@
     </row>
     <row r="4" spans="1:31" s="3" customFormat="1" ht="27">
       <c r="B4" s="17"/>
-      <c r="C4" s="39"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1097,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>6</v>
@@ -1130,13 +1123,13 @@
         <v>17</v>
       </c>
       <c r="S4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="U4" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="V4" s="10" t="s">
         <v>19</v>
@@ -1145,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y4" s="10" t="s">
         <v>21</v>
@@ -1154,16 +1147,16 @@
         <v>22</v>
       </c>
       <c r="AA4" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AC4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="AE4" s="18"/>
     </row>
@@ -2027,9 +2020,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:AE4"/>
-  <mergeCells count="1">
-    <mergeCell ref="C3:C4"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -980,7 +980,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1203,11 +1203,11 @@
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14">
-        <f>IF(OR(I5="正社員",I5="契約社員"),SUM(V5:Z5)*0.01,0)</f>
+        <f>IF(OR(I5="正社員",I5="契約社員"),INT(SUM(V5:Z5)*0.01),0)</f>
         <v>0</v>
       </c>
       <c r="AC5" s="14">
-        <f>IF(H5="○",SUM(V5:Z5)*0.14,0)</f>
+        <f>IF(H5="○",INT(SUM(V5:Z5)*0.14),0)</f>
         <v>0</v>
       </c>
       <c r="AD5" s="14">
@@ -1250,11 +1250,11 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="14">
-        <f t="shared" ref="AB6:AB22" si="1">IF(OR(I6="正社員",I6="契約社員"),SUM(V6:Z6)*0.01,0)</f>
+        <f t="shared" ref="AB6:AB22" si="1">IF(OR(I6="正社員",I6="契約社員"),INT(SUM(V6:Z6)*0.01),0)</f>
         <v>0</v>
       </c>
       <c r="AC6" s="14">
-        <f t="shared" ref="AC6:AC22" si="2">IF(H6="○",SUM(V6:Z6)*0.14,0)</f>
+        <f t="shared" ref="AC6:AC22" si="2">IF(H6="○",INT(SUM(V6:Z6)*0.14),0)</f>
         <v>0</v>
       </c>
       <c r="AD6" s="14">

--- a/media/attachment/attendance_format.xlsx
+++ b/media/attachment/attendance_format.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YangWanjun/Documents/workspace/ebusiness/media/attachment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14760"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="マスタ" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AE$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>＜経営データ統計表＞</t>
     <rPh sb="1" eb="3">
@@ -264,17 +268,6 @@
   </si>
   <si>
     <t>XXXXXXXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一括</t>
-    <rPh sb="0" eb="2">
-      <t>イッカツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SES</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -366,7 +359,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,9 +569,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -980,7 +970,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -992,91 +982,91 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="8.625" style="2"/>
-    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="8.6640625" style="2"/>
+    <col min="7" max="7" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.625" style="9"/>
-    <col min="16" max="16" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="9"/>
-    <col min="18" max="18" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.375" style="9" customWidth="1"/>
-    <col min="21" max="21" width="9.625" style="9" customWidth="1"/>
-    <col min="22" max="24" width="8.625" style="9"/>
-    <col min="25" max="25" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.625" style="9"/>
-    <col min="28" max="28" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.375" style="9" customWidth="1"/>
-    <col min="30" max="30" width="10.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.625" style="9" customWidth="1"/>
-    <col min="32" max="16384" width="8.625" style="2"/>
+    <col min="11" max="11" width="10.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.6640625" style="8"/>
+    <col min="16" max="16" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="8"/>
+    <col min="18" max="18" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.33203125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" style="8" customWidth="1"/>
+    <col min="22" max="24" width="8.6640625" style="8"/>
+    <col min="25" max="25" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.6640625" style="8"/>
+    <col min="28" max="28" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" style="8" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.6640625" style="8" customWidth="1"/>
+    <col min="32" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.75">
+    <row r="1" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="31"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="33" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="30"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="19" t="s">
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="3" customFormat="1" ht="27">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+    <row r="4" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1089,8 +1079,8 @@
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>34</v>
+      <c r="H4" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>6</v>
@@ -1099,921 +1089,921 @@
         <v>7</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="V4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="Y4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="X4" s="10" t="s">
+      <c r="AB4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA4" s="35" t="s">
+      <c r="AD4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE4" s="18"/>
+      <c r="AE4" s="17"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13">
         <f>IF(OR(I5="正社員",I5="契約社員"),INT(SUM(V5:Z5)*0.01),0)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="13">
         <f>IF(H5="○",INT(SUM(V5:Z5)*0.14),0)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5" s="13">
         <f>SUM(V5:AC5)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5" s="13">
         <f>T5-SUM(V5:AC5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <f t="shared" ref="B6:B21" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="14">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="13">
         <f t="shared" ref="AB6:AB22" si="1">IF(OR(I6="正社員",I6="契約社員"),INT(SUM(V6:Z6)*0.01),0)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="13">
         <f t="shared" ref="AC6:AC22" si="2">IF(H6="○",INT(SUM(V6:Z6)*0.14),0)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6" s="13">
         <f t="shared" ref="AD6:AD22" si="3">SUM(V6:AC6)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AE6" s="13">
         <f t="shared" ref="AE6:AE22" si="4">T6-SUM(V6:AC6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="14">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AC7" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AD7" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AE7" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="14">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AC8" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AD8" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AE8" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="14">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="14">
+      <c r="AC9" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="14">
+      <c r="AD9" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AE9" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="14">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AC10" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="14">
+      <c r="AD10" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AE10" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="14">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="14">
+      <c r="AC11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AD11" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AE11" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="14">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="14">
+      <c r="AC12" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="14">
+      <c r="AD12" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="14">
+      <c r="AE12" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="14">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AC13" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AD13" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AE13" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="14">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="14">
+      <c r="AC14" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="14">
+      <c r="AD14" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AE14" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="14">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="14">
+      <c r="AC15" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="14">
+      <c r="AD15" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="14">
+      <c r="AE15" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="14">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="14">
+      <c r="AC16" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="14">
+      <c r="AD16" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="14">
+      <c r="AE16" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="14">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="14">
+      <c r="AC17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="14">
+      <c r="AD17" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="14">
+      <c r="AE17" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="14">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="14">
+      <c r="AC18" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="14">
+      <c r="AD18" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="14">
+      <c r="AE18" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:31">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="14">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="14">
+      <c r="AC19" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="14">
+      <c r="AD19" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="14">
+      <c r="AE19" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="14">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="14">
+      <c r="AC20" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="14">
+      <c r="AD20" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="14">
+      <c r="AE20" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:31">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="14">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="14">
+      <c r="AC21" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="14">
+      <c r="AD21" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="14">
+      <c r="AE21" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:31">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <f>ROW()-4</f>
         <v>18</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="14">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="14">
+      <c r="AC22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="14">
+      <c r="AD22" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="14">
+      <c r="AE22" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2024,37 +2014,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="3" max="3" width="8.875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="C3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>